--- a/Hardware/Partlist.xlsx
+++ b/Hardware/Partlist.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="440" windowWidth="18740" windowHeight="23560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5720" yWindow="1940" windowWidth="37480" windowHeight="20560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="partlist" localSheetId="0">Tabelle1!$A$1:$F$52</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>Part</t>
   </si>
@@ -246,6 +247,33 @@
   </si>
   <si>
     <t>Bauteile</t>
+  </si>
+  <si>
+    <t>Holz</t>
+  </si>
+  <si>
+    <t>Sven</t>
+  </si>
+  <si>
+    <t>Schrauben &amp; Co</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Knauf</t>
+  </si>
+  <si>
+    <t>Gehstockpuffer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Kosten pro Stock</t>
   </si>
 </sst>
 </file>
@@ -310,12 +338,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -325,7 +362,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -335,6 +372,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -963,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1005,10 +1046,10 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3">
-        <v>560</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1052,7 +1093,7 @@
         <v>61</v>
       </c>
       <c r="C7">
-        <v>104</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1063,28 +1104,146 @@
         <v>58</v>
       </c>
       <c r="C8">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
       <c r="C9">
-        <v>300</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <v>116.75</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
       <c r="C12">
-        <f>SUM(C2:C11)</f>
-        <v>1462</v>
-      </c>
-      <c r="D12">
-        <f>C12/35</f>
-        <v>41.771428571428572</v>
+        <f>52.5+32.7</f>
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f>SUM(C2:C13)</f>
+        <v>1641.95</v>
+      </c>
+      <c r="D14">
+        <f>C14/33</f>
+        <v>49.756060606060608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8">
+        <f>(C2+C5+C6)/33</f>
+        <v>6.6060606060606064</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8">
+        <f>(C7+C9+C11)/33</f>
+        <v>14.840909090909092</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8">
+        <f>(C3+C13)/33</f>
+        <v>16.818181818181817</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10">
+        <f>(C10+C8+C12)/33</f>
+        <v>10.884848484848485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1">
+        <f>SUM(C19:C22)</f>
+        <v>49.15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.33203125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>